--- a/Документы/Информация о простоях грузовых ТС за январь 2019.xlsx
+++ b/Документы/Информация о простоях грузовых ТС за январь 2019.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3006" sheetId="1" r:id="rId1"/>
     <sheet name="1317" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'1317'!$3:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'3006'!$3:$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
   <si>
     <t>Время
 выхода</t>
@@ -57,10 +61,6 @@
     <t>р-н Высокие Ляды</t>
   </si>
   <si>
-    <t>Длительность,
-мин.</t>
-  </si>
-  <si>
     <t>Кривая Береза</t>
   </si>
   <si>
@@ -84,6 +84,37 @@
   </si>
   <si>
     <t>После этого сигнал пропал и появился в 14:40 в р-не Дорожный</t>
+  </si>
+  <si>
+    <t>Длительность,
+час:мин.</t>
+  </si>
+  <si>
+    <t>Р80 в р-не в/ч 3311</t>
+  </si>
+  <si>
+    <t>Р80 в р-не в/ч 3312</t>
+  </si>
+  <si>
+    <t>Р80 в р-не в/ч 3313</t>
+  </si>
+  <si>
+    <t>Р80 в р-не в/ч 3314</t>
+  </si>
+  <si>
+    <t>Р80 в р-не в/ч 3315</t>
+  </si>
+  <si>
+    <t>д. Сосновая</t>
+  </si>
+  <si>
+    <t>Р53 в р-не Слобода</t>
+  </si>
+  <si>
+    <t>Р53 в р-не Дорожный</t>
+  </si>
+  <si>
+    <t>Р59 лес в р-не Слобода</t>
   </si>
 </sst>
 </file>
@@ -125,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -251,11 +282,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,11 +324,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,13 +336,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -305,6 +346,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -587,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -598,528 +655,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="17">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>40</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="19">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.37638888888888888</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>10</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>0.52430555555555558</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>15</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="26">
+      <c r="A11" s="20"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="22">
         <v>0.5625</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>55</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="19">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.3576388888888889</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.625</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>0.36805555555555558</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E13" s="13">
-        <v>65</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="26">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="19">
         <v>16</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0.34722222222222227</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="22">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>53</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>0.52430555555555558</v>
       </c>
-      <c r="E16" s="13">
-        <v>63</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="26">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="26">
+      <c r="D17" s="22">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E17" s="13">
-        <v>78</v>
-      </c>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="26">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="26">
+      <c r="A18" s="20"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="22">
         <v>0.69097222222222221</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>60</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>0.34722222222222227</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0.75</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>31</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="26">
+      <c r="D20" s="22">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <v>50</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="26">
+      <c r="D21" s="22">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>17</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <v>0.50694444444444442</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>53</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>12</v>
+      <c r="F22" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="26">
+      <c r="D23" s="22">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <v>12</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <v>15</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="26">
+      <c r="A25" s="20"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="22">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <v>38</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>13</v>
+      <c r="F25" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="19">
         <v>18</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="22">
         <v>0.34375</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <v>10</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="26">
+      <c r="D27" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E27" s="13">
-        <v>85</v>
-      </c>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="26">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="22">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E28" s="11">
+        <v>21</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="26">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="E28" s="13">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
         <v>21</v>
       </c>
-      <c r="F28" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>0.3576388888888889</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>0.71527777777777779</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="22">
         <v>0.3923611111111111</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <v>18</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <v>12</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="26">
+      <c r="D31" s="22">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <v>21</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="26">
+      <c r="A32" s="20"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="22">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>25</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="19">
         <v>22</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>0.3576388888888889</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="22">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="11">
         <v>19</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>15</v>
+      <c r="F33" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="26">
+      <c r="D34" s="22">
         <v>0.4375</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="11">
         <v>10</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="26">
+      <c r="D35" s="22">
         <v>0.51388888888888895</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <v>19</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="26">
+      <c r="A36" s="20"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="22">
         <v>0.61111111111111105</v>
       </c>
-      <c r="E36" s="13">
-        <v>63</v>
-      </c>
-      <c r="F36" s="22" t="s">
+      <c r="E36" s="26">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1131,17 +1188,17 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.78" right="0.42" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1151,300 +1208,718 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E5" s="9">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="22">
+        <v>0.40625</v>
+      </c>
+      <c r="E6" s="26">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="22">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E7" s="11">
+        <v>31</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="22">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E8" s="11">
+        <v>48</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="22">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E9" s="11">
+        <v>32</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E10" s="11">
+        <v>23</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="22">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E11" s="11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="22">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E12" s="11">
+        <v>9</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="19">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E13" s="11">
+        <v>12</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E14" s="11">
+        <v>12</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="22">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="E15" s="11">
+        <v>36</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="22">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E16" s="11">
+        <v>16</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="22">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E17" s="11">
+        <v>10</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="22">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E18" s="11">
+        <v>28</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="19">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E19" s="11">
+        <v>24</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="22">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E20" s="26">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="22">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E21" s="11">
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="19">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E22" s="11">
+        <v>12</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="22">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E23" s="11">
+        <v>35</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="26">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="22">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E25" s="11">
+        <v>16</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="19">
+        <v>12</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E26" s="11">
+        <v>15</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
+      <c r="D27" s="22">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E27" s="11">
+        <v>10</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="22">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E28" s="11">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E29" s="11">
+        <v>35</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="22">
+        <v>0.5625</v>
+      </c>
+      <c r="E30" s="11">
+        <v>17</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="22">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E31" s="11">
+        <v>27</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
+      <c r="A32" s="19">
+        <v>14</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E32" s="26">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="22">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E33" s="11">
+        <v>38</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="22">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E34" s="11">
+        <v>23</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="22">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E35" s="26">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
+      <c r="A36" s="19">
+        <v>16</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E36" s="26">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="22">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E37" s="11">
+        <v>12</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E38" s="11">
+        <v>56</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="22">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E39" s="11">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="22">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E40" s="11">
+        <v>50</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="22">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E41" s="11">
+        <v>36</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>17</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E42" s="11">
+        <v>25</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="22">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E43" s="11">
+        <v>40</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="22">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E44" s="11">
+        <v>22</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="22">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E45" s="11">
+        <v>54</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="22">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E46" s="11">
+        <v>20</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="22">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E47" s="11">
+        <v>11</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="22">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E48" s="11">
+        <v>47</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1454,7 +1929,7 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
-  <pageMargins left="0.78" right="0.42" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Документы/Информация о простоях грузовых ТС за январь 2019.xlsx
+++ b/Документы/Информация о простоях грузовых ТС за январь 2019.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3006" sheetId="1" r:id="rId1"/>
     <sheet name="1317" sheetId="2" r:id="rId2"/>
+    <sheet name="3007" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'1317'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'3006'!$3:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'3007'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="27">
   <si>
     <t>Время
 выхода</t>
@@ -50,9 +52,6 @@
   </si>
   <si>
     <t>Н9544 в р-не Курково</t>
-  </si>
-  <si>
-    <t>Р80 в р-не в/ч 3310</t>
   </si>
   <si>
     <t>Заправка на выезде на Минск</t>
@@ -90,24 +89,6 @@
 час:мин.</t>
   </si>
   <si>
-    <t>Р80 в р-не в/ч 3311</t>
-  </si>
-  <si>
-    <t>Р80 в р-не в/ч 3312</t>
-  </si>
-  <si>
-    <t>Р80 в р-не в/ч 3313</t>
-  </si>
-  <si>
-    <t>Р80 в р-не в/ч 3314</t>
-  </si>
-  <si>
-    <t>Р80 в р-не в/ч 3315</t>
-  </si>
-  <si>
-    <t>д. Сосновая</t>
-  </si>
-  <si>
     <t>Р53 в р-не Слобода</t>
   </si>
   <si>
@@ -115,6 +96,21 @@
   </si>
   <si>
     <t>Р59 лес в р-не Слобода</t>
+  </si>
+  <si>
+    <t>Р80 в р-не Околица</t>
+  </si>
+  <si>
+    <t>Съездил в Заброденье и назад</t>
+  </si>
+  <si>
+    <t>М2 в р-не Аэропорта</t>
+  </si>
+  <si>
+    <t>Сигнал пропал в р-не Птицефабрики</t>
+  </si>
+  <si>
+    <t>Информация о простоях ТС № 3007 (водитель Слижевский И.М.) за Январь 2019</t>
   </si>
 </sst>
 </file>
@@ -156,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -302,11 +298,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,9 +342,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -352,9 +356,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,6 +363,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -645,93 +674,93 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>10</v>
       </c>
       <c r="B8" s="12">
@@ -740,18 +769,18 @@
       <c r="C8" s="12">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>0.59027777777777779</v>
       </c>
       <c r="E8" s="11">
         <v>40</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>11</v>
       </c>
       <c r="B9" s="7">
@@ -760,46 +789,46 @@
       <c r="C9" s="7">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>0.4236111111111111</v>
       </c>
       <c r="E9" s="11">
         <v>10</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>8</v>
+      <c r="F9" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>0.52430555555555558</v>
       </c>
       <c r="E10" s="11">
         <v>15</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>0.5625</v>
       </c>
       <c r="E11" s="11">
         <v>55</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>8</v>
+      <c r="F11" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>12</v>
       </c>
       <c r="B12" s="7">
@@ -808,42 +837,42 @@
       <c r="C12" s="7">
         <v>0.625</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>0.36805555555555558</v>
       </c>
       <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>9</v>
+      <c r="F12" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>10</v>
+      <c r="F13" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="20" t="s">
-        <v>18</v>
+      <c r="D14" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>16</v>
       </c>
       <c r="B15" s="7">
@@ -852,60 +881,60 @@
       <c r="C15" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>0.37152777777777773</v>
       </c>
       <c r="E15" s="11">
         <v>53</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>0.52430555555555558</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>5.4166666666666669E-2</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>8</v>
+      <c r="F17" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>0.69097222222222221</v>
       </c>
       <c r="E18" s="11">
         <v>60</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>8</v>
+      <c r="F18" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
       <c r="B19" s="7">
@@ -914,102 +943,102 @@
       <c r="C19" s="7">
         <v>0.75</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>0.38541666666666669</v>
       </c>
       <c r="E19" s="11">
         <v>31</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>0.42708333333333331</v>
       </c>
       <c r="E20" s="11">
         <v>50</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>8</v>
+      <c r="F20" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>0.49305555555555558</v>
       </c>
       <c r="E21" s="11">
         <v>17</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>0.50694444444444442</v>
       </c>
       <c r="E22" s="11">
         <v>53</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>11</v>
+      <c r="F22" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>0.56597222222222221</v>
       </c>
       <c r="E23" s="11">
         <v>12</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>8</v>
+      <c r="F23" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>0.64583333333333337</v>
       </c>
       <c r="E24" s="11">
         <v>15</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>0.69791666666666663</v>
       </c>
       <c r="E25" s="11">
         <v>38</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>12</v>
+      <c r="F25" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>18</v>
       </c>
       <c r="B26" s="7">
@@ -1018,46 +1047,46 @@
       <c r="C26" s="7">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>0.34375</v>
       </c>
       <c r="E26" s="11">
         <v>10</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>9</v>
+      <c r="F26" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>14</v>
+      <c r="F27" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>0.64930555555555558</v>
       </c>
       <c r="E28" s="11">
         <v>21</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>15</v>
+      <c r="F28" s="20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>21</v>
       </c>
       <c r="B29" s="7">
@@ -1066,60 +1095,60 @@
       <c r="C29" s="7">
         <v>0.71527777777777779</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>0.3923611111111111</v>
       </c>
       <c r="E29" s="11">
         <v>18</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>0.44791666666666669</v>
       </c>
       <c r="E30" s="11">
         <v>12</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>0.55208333333333337</v>
       </c>
       <c r="E31" s="11">
         <v>21</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>0.63194444444444442</v>
       </c>
       <c r="E32" s="11">
         <v>25</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>22</v>
       </c>
       <c r="B33" s="7">
@@ -1128,56 +1157,56 @@
       <c r="C33" s="7">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>0.38541666666666669</v>
       </c>
       <c r="E33" s="11">
         <v>19</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>14</v>
+      <c r="F33" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>0.4375</v>
       </c>
       <c r="E34" s="11">
         <v>10</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>8</v>
+      <c r="F34" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>0.51388888888888895</v>
       </c>
       <c r="E35" s="11">
         <v>19</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>8</v>
+      <c r="F35" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>0.61111111111111105</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="24">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>8</v>
+      <c r="F36" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1190,141 +1219,144 @@
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;RСтраница &amp;P</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>0.33680555555555558</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>0.3611111111111111</v>
       </c>
       <c r="E5" s="9">
         <v>29</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>0.40625</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>5.0694444444444452E-2</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>8</v>
+      <c r="F6" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>0.50347222222222221</v>
       </c>
       <c r="E7" s="11">
         <v>31</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>8</v>
+      <c r="F7" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>0.57291666666666663</v>
       </c>
       <c r="E8" s="11">
         <v>48</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>20</v>
+      <c r="F8" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="22">
+      <c r="A9" s="19"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="21">
         <v>0.65277777777777779</v>
       </c>
       <c r="E9" s="11">
         <v>32</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>21</v>
+      <c r="F9" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>3</v>
       </c>
       <c r="B10" s="7">
@@ -1333,592 +1365,968 @@
       <c r="C10" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>0.43402777777777773</v>
       </c>
       <c r="E10" s="11">
         <v>23</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="22">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="E11" s="11">
         <v>20</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="22">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="E12" s="11">
-        <v>9</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="A12" s="18">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E12" s="31">
+        <v>12</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>4</v>
-      </c>
+      <c r="A13" s="18"/>
       <c r="B13" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C13" s="7">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0.44097222222222227</v>
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.47222222222222227</v>
       </c>
       <c r="E13" s="11">
         <v>12</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>23</v>
+      <c r="F13" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0.47222222222222227</v>
+      <c r="A14" s="18"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="21">
+        <v>0.52430555555555558</v>
       </c>
       <c r="E14" s="11">
-        <v>12</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="22">
-        <v>0.52430555555555558</v>
+      <c r="A15" s="18"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="21">
+        <v>0.57638888888888895</v>
       </c>
       <c r="E15" s="11">
-        <v>36</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="22">
-        <v>0.57638888888888895</v>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="21">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E16" s="11">
-        <v>16</v>
-      </c>
-      <c r="F16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E17" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="22">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="F17" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="21">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E18" s="24">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="21">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E19" s="11">
+        <v>59</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>10</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="22">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E18" s="11">
-        <v>28</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>9</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="B20" s="7">
         <v>0.37152777777777773</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E19" s="11">
-        <v>24</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="22">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="E20" s="26">
-        <v>6.1111111111111116E-2</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>7</v>
+      <c r="C20" s="7">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E20" s="11">
+        <v>12</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="22">
-        <v>0.63194444444444442</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="21">
+        <v>0.4236111111111111</v>
       </c>
       <c r="E21" s="11">
-        <v>59</v>
-      </c>
-      <c r="F21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="E22" s="11">
-        <v>12</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>9</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="24">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="22">
-        <v>0.4236111111111111</v>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="21">
+        <v>0.68055555555555547</v>
       </c>
       <c r="E23" s="11">
+        <v>16</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>12</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E24" s="11">
+        <v>15</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="21">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E25" s="11">
+        <v>10</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="21">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E26" s="11">
+        <v>12</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="21">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E27" s="11">
         <v>35</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="26">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="22">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="E25" s="11">
-        <v>16</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>12</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E26" s="11">
-        <v>15</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="22">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E27" s="11">
-        <v>10</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="22">
-        <v>0.47916666666666669</v>
+      <c r="D28" s="21">
+        <v>0.5625</v>
       </c>
       <c r="E28" s="11">
-        <v>12</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="22">
-        <v>0.52083333333333337</v>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="21">
+        <v>0.59722222222222221</v>
       </c>
       <c r="E29" s="11">
-        <v>35</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22">
-        <v>0.5625</v>
-      </c>
-      <c r="E30" s="11">
-        <v>17</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>24</v>
+      <c r="A30" s="18">
+        <v>14</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E30" s="24">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="22">
-        <v>0.59722222222222221</v>
+      <c r="A31" s="18"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="21">
+        <v>0.53819444444444442</v>
       </c>
       <c r="E31" s="11">
-        <v>27</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>14</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="E32" s="26">
-        <v>5.9027777777777783E-2</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>28</v>
+      <c r="A32" s="18"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="21">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E32" s="11">
+        <v>23</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="22">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="E33" s="11">
-        <v>38</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>28</v>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="21">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E33" s="24">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="22">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="E34" s="11">
-        <v>23</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>28</v>
+      <c r="A34" s="18">
+        <v>16</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E34" s="24">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="22">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="E35" s="26">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="21">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E35" s="11">
         <v>12</v>
       </c>
+      <c r="F35" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
-        <v>16</v>
-      </c>
-      <c r="B36" s="7">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="D36" s="22">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="E36" s="26">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="F36" s="18" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="21">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E36" s="11">
+        <v>56</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="22">
-        <v>0.49305555555555558</v>
+      <c r="D37" s="21">
+        <v>0.58333333333333337</v>
       </c>
       <c r="E37" s="11">
-        <v>12</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="22">
-        <v>0.52083333333333337</v>
+      <c r="D38" s="21">
+        <v>0.61805555555555558</v>
       </c>
       <c r="E38" s="11">
-        <v>56</v>
-      </c>
-      <c r="F38" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="22">
-        <v>0.58333333333333337</v>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="21">
+        <v>0.68055555555555547</v>
       </c>
       <c r="E39" s="11">
-        <v>11</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="22">
-        <v>0.61805555555555558</v>
+      <c r="A40" s="18">
+        <v>17</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0.38194444444444442</v>
       </c>
       <c r="E40" s="11">
-        <v>50</v>
-      </c>
-      <c r="F40" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="22">
-        <v>0.68055555555555547</v>
+      <c r="A41" s="18"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="21">
+        <v>0.4236111111111111</v>
       </c>
       <c r="E41" s="11">
-        <v>36</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>17</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D42" s="22">
-        <v>0.38194444444444442</v>
+      <c r="A42" s="18"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="21">
+        <v>0.48958333333333331</v>
       </c>
       <c r="E42" s="11">
-        <v>25</v>
-      </c>
-      <c r="F42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="22">
-        <v>0.4236111111111111</v>
+      <c r="D43" s="21">
+        <v>0.50694444444444442</v>
       </c>
       <c r="E43" s="11">
-        <v>40</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="22">
-        <v>0.48958333333333331</v>
+      <c r="D44" s="21">
+        <v>0.60416666666666663</v>
       </c>
       <c r="E44" s="11">
-        <v>22</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="22">
-        <v>0.50694444444444442</v>
+      <c r="D45" s="21">
+        <v>0.63888888888888895</v>
       </c>
       <c r="E45" s="11">
-        <v>54</v>
-      </c>
-      <c r="F45" s="21" t="s">
         <v>11</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="22">
-        <v>0.60416666666666663</v>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="21">
+        <v>0.69097222222222221</v>
       </c>
       <c r="E46" s="11">
+        <v>47</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>21</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E47" s="11">
+        <v>12</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="21">
+        <v>0.53125</v>
+      </c>
+      <c r="E48" s="24">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="21">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E49" s="11">
+        <v>14</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="21">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E50" s="11">
+        <v>44</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>22</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="D51" s="33">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E51" s="31">
+        <v>13</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="33">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E52" s="31">
+        <v>11</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="21">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E53" s="11">
+        <v>13</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="21">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E54" s="24">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>24</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>25</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E56" s="11">
+        <v>23</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="21">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E57" s="11">
+        <v>32</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="21">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E58" s="11">
         <v>20</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F58" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="21">
+        <v>0.53125</v>
+      </c>
+      <c r="E59" s="11">
+        <v>32</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <v>28</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="E60" s="11">
+        <v>39</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="21">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E61" s="24">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>29</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E62" s="24">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="21">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E63" s="11">
+        <v>50</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="21">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E64" s="11">
+        <v>20</v>
+      </c>
+      <c r="F64" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="22">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="E47" s="11">
-        <v>11</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="22">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="E48" s="11">
-        <v>47</v>
-      </c>
-      <c r="F48" s="21" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>30</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D65" s="21">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E65" s="11">
+        <v>50</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="21">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E66" s="24">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="21">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E67" s="11">
+        <v>16</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="21">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E68" s="11">
+        <v>19</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
+        <v>31</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="21">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E70" s="11">
+        <v>45</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="21">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E72" s="11">
         <v>12</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +2337,630 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="0.74803149606299213" bottom="0.56999999999999995" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;RСтраница &amp;P</oddHeader>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="50" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="40"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="40"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="40"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="40"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="40"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="0.74803149606299213" bottom="0.56999999999999995" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;RСтраница &amp;P</oddHeader>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="50" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/Документы/Информация о простоях грузовых ТС за январь 2019.xlsx
+++ b/Документы/Информация о простоях грузовых ТС за январь 2019.xlsx
@@ -4,17 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3006" sheetId="1" r:id="rId1"/>
     <sheet name="1317" sheetId="2" r:id="rId2"/>
-    <sheet name="3007" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'1317'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'3006'!$3:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'3007'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
   <si>
     <t>Время
 выхода</t>
@@ -108,9 +106,6 @@
   </si>
   <si>
     <t>Сигнал пропал в р-не Птицефабрики</t>
-  </si>
-  <si>
-    <t>Информация о простоях ТС № 3007 (водитель Слижевский И.М.) за Январь 2019</t>
   </si>
 </sst>
 </file>
@@ -313,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,12 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,13 +373,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -684,35 +666,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
@@ -1240,35 +1222,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
@@ -1399,13 +1381,13 @@
       <c r="C12" s="7">
         <v>0.77430555555555547</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="31">
         <v>0.44097222222222227</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="29">
         <v>12</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1997,13 +1979,13 @@
       <c r="C51" s="7">
         <v>0.6875</v>
       </c>
-      <c r="D51" s="33">
+      <c r="D51" s="31">
         <v>0.3923611111111111</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="29">
         <v>13</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2011,13 +1993,13 @@
       <c r="A52" s="18"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="33">
+      <c r="D52" s="31">
         <v>0.43402777777777773</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="29">
         <v>11</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2328,623 +2310,6 @@
       <c r="F72" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="0.74803149606299213" bottom="0.56999999999999995" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;RСтраница &amp;P</oddHeader>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="50" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="40"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="40"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="40"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="40"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="40"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="40"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="40"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="40"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
